--- a/outputs-GTDB-r202/g__Weimerbacter.xlsx
+++ b/outputs-GTDB-r202/g__Weimerbacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,11 +485,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -526,11 +521,6 @@
           <t>s__Weimerbacter sp900315505</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>s__Weimerbacter sp900315505</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -567,11 +557,6 @@
           <t>s__Weimerbacter sp900316165</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>s__Weimerbacter sp900316165</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -608,11 +593,6 @@
           <t>s__Weimerbacter sp900317825</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>s__Weimerbacter sp900317825</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -645,11 +625,6 @@
         <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>s__Weimerbacter sp900317825</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>s__Weimerbacter sp900317825</t>
         </is>

--- a/outputs-GTDB-r202/g__Weimerbacter.xlsx
+++ b/outputs-GTDB-r202/g__Weimerbacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>s__Weimerbacter sp900315505</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>s__Weimerbacter sp900315505</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +567,11 @@
           <t>s__Weimerbacter sp900316165</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>s__Weimerbacter sp900316165</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +608,11 @@
           <t>s__Weimerbacter sp900317825</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>s__Weimerbacter sp900317825</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -625,6 +645,11 @@
         <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>s__Weimerbacter sp900317825</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>s__Weimerbacter sp900317825</t>
         </is>
